--- a/Excel Data/Figure3.xlsx
+++ b/Excel Data/Figure3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corey\Desktop\MS Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corey\Desktop\MS Model\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FCE9F0-C41F-4E57-B1AF-74B9863680E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168D88FF-F974-46B0-8360-4FD6391CFEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,10 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Time (1/10 Day)</t>
+    <t>Oxidative Stress</t>
   </si>
   <si>
-    <t>Oxidative Stress</t>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -78,6 +78,2838 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sigmoidal Model of Oxidative Stress</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Oxidative Stress</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$302</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="301"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>21.1</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>23.9</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>24.3</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>24.9</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>25.3</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>25.7</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>25.8</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>26.1</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>26.2</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>26.3</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>26.7</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>26.8</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>26.9</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>27.1</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>27.3</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>27.6</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>27.7</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>27.8</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>27.9</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>28.1</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>28.2</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>28.4</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>28.7</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>29.3</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>29.8</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$302</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="301"/>
+                <c:pt idx="0">
+                  <c:v>1.0620885638228969E-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8870560432539471E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8478319801200743E-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1332619064360159E-15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7988070756089223E-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.576279190036746E-14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2847710788550249E-14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1647215362758441E-13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1660413872735039E-13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.6061927711746444E-13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.339405742209825E-12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.3591641184406897E-12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7286000267338561E-11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6988220413388769E-11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2772722570093049E-10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4719859661927858E-10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.4378363603414532E-10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5654699076622069E-9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.9736702302270284E-9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.895640105540596E-8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.1528840454755088E-8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.400699101536485E-7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.8074948781900871E-7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.034984386848583E-6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.8133790513773752E-6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.6475556731406184E-6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0788200691603301E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.6508107447589361E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5360436505536799E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.1753554620237952E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.1349467175608601E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0848643996557929E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.3837532616619533E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.2776279860016131E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.1815578915869362E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.16732127310712139</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.44965524905228899</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.18564682943917</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.9800730505529391</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.7235355342498782</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>18.27646446575012</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22.019926949447061</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>23.814353170560839</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24.550344750947719</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24.83267872689289</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>24.938184421084181</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>24.977223720140099</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24.991616246738658</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24.996915135601199</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>24.998865053284781</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>24.999582464460161</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>24.999846395652231</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>24.99994349193954</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>24.99997921192703</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>24.999992352791519</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>24.99999718756473</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>24.999998967581082</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>24.999999626224181</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>24.999999878886491</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>25.000000121113509</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>25.000000373775819</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>25.000001032418911</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>25.00000281243527</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>25.00000764720847</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>25.00002078807297</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>25.00005650806046</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>25.000153604347769</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>25.000417535539839</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>25.001134946715219</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>25.003084864398801</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>25.008383753261349</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>25.022776279859901</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>25.06181557891583</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>25.167321273107099</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>25.449655249052281</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>26.185646829439172</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>27.980073050552939</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>31.72353553424988</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43.276464465750117</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>47.019926949447047</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>48.814353170560842</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>49.550344750947723</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>49.832678726892887</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>49.938184421084173</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>49.977223720140103</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>49.991616246738673</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>49.996915135601213</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>49.998865053284781</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>49.999582464460147</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>49.999846395652227</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>49.99994349193954</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>49.999979211927027</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>49.999992352791523</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>49.99999718756473</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>49.999998967581078</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>49.999999626224188</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>49.999999878886477</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>50.000000121113509</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>50.000000373775819</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>50.000001032418908</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>50.000002812435262</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>50.00000764720847</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>50.000020788072973</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>50.000056508060453</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>50.000153604347773</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>50.000417535539839</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>50.001134946715233</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>50.003084864398787</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>50.008383753261349</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>50.022776279859897</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>50.061815578915827</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>50.167321273107113</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>50.449655249052277</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>51.185646829439172</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>52.980073050552939</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>56.723535534249883</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>68.276464465750124</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>72.019926949447054</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>73.814353170560835</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>74.550344750947716</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>74.832678726892894</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>74.938184421084173</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>74.977223720140103</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>74.991616246738658</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>74.996915135601213</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>74.998865053284788</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>74.999582464460147</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>74.999846395652227</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>74.999943491939547</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>74.999979211927041</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>74.999992352791523</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>74.99999718756473</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>74.999998967581078</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>74.999999626224181</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>74.999999878886484</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>75.000000121113516</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>75.000000373775819</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>75.000001032418922</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>75.00000281243527</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>75.000007647208477</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>75.000020788072959</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>75.000056508060453</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>75.000153604347773</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>75.000417535539839</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>75.001134946715226</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>75.003084864398801</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>75.008383753261356</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>75.022776279859897</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>75.061815578915827</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>75.167321273107106</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>75.449655249052284</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>76.185646829439165</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>77.980073050552932</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>81.723535534249876</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>93.276464465750124</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>97.019926949447054</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>98.814353170560835</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>99.550344750947716</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>99.83267872689288</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>99.938184421084131</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>99.977223720139989</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>99.991616246738346</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>99.996915135600347</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>99.998865053282444</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>99.999582464453795</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>99.999846395634947</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>99.999943491892552</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>99.999979211799314</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>99.999992352444323</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>99.999997186620945</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>99.999998965015607</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>99.999999619250517</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>99.999999859930085</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>99.999999948471157</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>99.999999981043601</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>99.999999993026336</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>99.999999997434529</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>99.999999999056215</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>99.9999999996528</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>99.999999999872273</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>99.999999999953005</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>99.99999999998272</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>99.999999999993634</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>99.999999999997669</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>99.999999999999147</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>99.999999999999687</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>99.999999999999886</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>99.999999999999957</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>99.999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>99.999999859930085</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>99.999999619250517</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>99.999998965015607</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>99.999997186620945</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>99.999992352444309</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>99.999979211799257</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>99.999943491892438</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>99.99984639563462</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>99.999582464452942</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>99.998865053280099</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>99.99691513559398</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>99.991616246721051</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>99.977223720092994</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>99.938184420956404</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>99.83267872654568</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>99.550344750003916</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>98.814353167995364</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>97.01992694247339</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>93.27646444679371</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>87.499999948471157</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>81.723535394179976</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>77.980072669803448</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>76.185645794454786</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>75.449652435673229</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>75.167313625551429</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>75.06179479071514</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>75.022719771752449</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>75.008230148896288</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>75.002667328852596</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>74.999999999997669</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>74.997332671140185</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>74.991769851086104</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>74.977280228200442</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>74.938205209157104</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>74.832686374101357</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>74.550347563382971</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>73.814354202979743</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>72.019927323222873</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>68.276464586863625</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>56.723535413136368</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>52.980072676777127</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>51.18564579702025</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>50.449652436617008</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>50.167313625898629</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>50.06179479084286</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>50.022719771799437</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>50.008230148913583</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>50.002667328858948</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>49.997332671141038</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>49.991769851086431</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>49.977280228200563</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>49.938205209157147</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>49.832686374101371</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>49.550347563382992</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>48.81435420297975</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>47.019927323222873</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>43.276464586863632</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>31.723535413136371</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>27.98007267677712</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>26.18564579702025</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>25.449652436617018</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>25.16731362589864</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>25.0617947908429</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>25.022719771799551</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>25.008230148913889</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>25.002667328859811</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>25.000000000002341</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>24.997332671147401</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>24.991769851103719</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>24.977280228247551</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>24.93820520928487</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>24.832686374448571</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>24.550347564326771</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>23.814354205545222</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>22.019927330196541</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>18.276464605820031</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>12.50000005152884</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>6.723535553206279</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2.9800730575266088</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>1.1856468320046389</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0.44965524999607259</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0.16732127345431999</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>6.1815579043596587E-2</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2.277627990700435E-2</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>8.383753278947954E-3</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>3.084864406014957E-3</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>1.1349467199002661E-3</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>4.1753554706299882E-4</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>1.536043653719721E-4</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>5.6508107564061507E-5</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2.0788200734451019E-5</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>7.6475556889034102E-6</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2.8133790571761822E-6</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1.034984388981845E-6</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>3.8074948860379189E-7</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1.4006991044235409E-7</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>5.1528840560963947E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7585-468F-B617-DD20C5E0E342}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="598360384"/>
+        <c:axId val="598360712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="598360384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (days)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598360712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="598360712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Oxidative Stress</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598360384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF7850C-66D0-4004-ABCD-2719F41D199E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,8 +3235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="H279" sqref="H279"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -415,10 +3247,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -431,7 +3263,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="B3">
         <v>2.8870560432539471E-16</v>
@@ -439,7 +3271,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="B4">
         <v>7.8478319801200743E-16</v>
@@ -447,7 +3279,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="B5">
         <v>2.1332619064360159E-15</v>
@@ -455,7 +3287,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="B6">
         <v>5.7988070756089223E-15</v>
@@ -463,7 +3295,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="B7">
         <v>1.576279190036746E-14</v>
@@ -471,7 +3303,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="B8">
         <v>4.2847710788550249E-14</v>
@@ -479,7 +3311,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="B9">
         <v>1.1647215362758441E-13</v>
@@ -487,7 +3319,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>8</v>
+        <v>0.8</v>
       </c>
       <c r="B10">
         <v>3.1660413872735039E-13</v>
@@ -495,7 +3327,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>9</v>
+        <v>0.9</v>
       </c>
       <c r="B11">
         <v>8.6061927711746444E-13</v>
@@ -503,7 +3335,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>2.339405742209825E-12</v>
@@ -511,7 +3343,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>11</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B13">
         <v>6.3591641184406897E-12</v>
@@ -519,7 +3351,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>12</v>
+        <v>1.2</v>
       </c>
       <c r="B14">
         <v>1.7286000267338561E-11</v>
@@ -527,7 +3359,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>13</v>
+        <v>1.3</v>
       </c>
       <c r="B15">
         <v>4.6988220413388769E-11</v>
@@ -535,7 +3367,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>14</v>
+        <v>1.4</v>
       </c>
       <c r="B16">
         <v>1.2772722570093049E-10</v>
@@ -543,7 +3375,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="B17">
         <v>3.4719859661927858E-10</v>
@@ -551,7 +3383,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>16</v>
+        <v>1.6</v>
       </c>
       <c r="B18">
         <v>9.4378363603414532E-10</v>
@@ -559,7 +3391,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>17</v>
+        <v>1.7</v>
       </c>
       <c r="B19">
         <v>2.5654699076622069E-9</v>
@@ -567,7 +3399,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>18</v>
+        <v>1.8</v>
       </c>
       <c r="B20">
         <v>6.9736702302270284E-9</v>
@@ -575,7 +3407,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>19</v>
+        <v>1.9</v>
       </c>
       <c r="B21">
         <v>1.895640105540596E-8</v>
@@ -583,7 +3415,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B22">
         <v>5.1528840454755088E-8</v>
@@ -591,7 +3423,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>21</v>
+        <v>2.1</v>
       </c>
       <c r="B23">
         <v>1.400699101536485E-7</v>
@@ -599,7 +3431,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>22</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B24">
         <v>3.8074948781900871E-7</v>
@@ -607,7 +3439,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>23</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B25">
         <v>1.034984386848583E-6</v>
@@ -615,7 +3447,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>24</v>
+        <v>2.4</v>
       </c>
       <c r="B26">
         <v>2.8133790513773752E-6</v>
@@ -623,7 +3455,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>25</v>
+        <v>2.5</v>
       </c>
       <c r="B27">
         <v>7.6475556731406184E-6</v>
@@ -631,7 +3463,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>26</v>
+        <v>2.6</v>
       </c>
       <c r="B28">
         <v>2.0788200691603301E-5</v>
@@ -639,7 +3471,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>27</v>
+        <v>2.7</v>
       </c>
       <c r="B29">
         <v>5.6508107447589361E-5</v>
@@ -647,7 +3479,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>28</v>
+        <v>2.8</v>
       </c>
       <c r="B30">
         <v>1.5360436505536799E-4</v>
@@ -655,7 +3487,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>29</v>
+        <v>2.9</v>
       </c>
       <c r="B31">
         <v>4.1753554620237952E-4</v>
@@ -663,7 +3495,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B32">
         <v>1.1349467175608601E-3</v>
@@ -671,7 +3503,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>31</v>
+        <v>3.1</v>
       </c>
       <c r="B33">
         <v>3.0848643996557929E-3</v>
@@ -679,7 +3511,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>32</v>
+        <v>3.2</v>
       </c>
       <c r="B34">
         <v>8.3837532616619533E-3</v>
@@ -687,7 +3519,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>33</v>
+        <v>3.3</v>
       </c>
       <c r="B35">
         <v>2.2776279860016131E-2</v>
@@ -695,7 +3527,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>34</v>
+        <v>3.4</v>
       </c>
       <c r="B36">
         <v>6.1815578915869362E-2</v>
@@ -703,7 +3535,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>35</v>
+        <v>3.5</v>
       </c>
       <c r="B37">
         <v>0.16732127310712139</v>
@@ -711,7 +3543,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>36</v>
+        <v>3.6</v>
       </c>
       <c r="B38">
         <v>0.44965524905228899</v>
@@ -719,7 +3551,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>37</v>
+        <v>3.7</v>
       </c>
       <c r="B39">
         <v>1.18564682943917</v>
@@ -727,7 +3559,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>38</v>
+        <v>3.8</v>
       </c>
       <c r="B40">
         <v>2.9800730505529391</v>
@@ -735,7 +3567,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>39</v>
+        <v>3.9</v>
       </c>
       <c r="B41">
         <v>6.7235355342498782</v>
@@ -743,7 +3575,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B42">
         <v>12.5</v>
@@ -751,7 +3583,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>41</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B43">
         <v>18.27646446575012</v>
@@ -759,7 +3591,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>42</v>
+        <v>4.2</v>
       </c>
       <c r="B44">
         <v>22.019926949447061</v>
@@ -767,7 +3599,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>43</v>
+        <v>4.3</v>
       </c>
       <c r="B45">
         <v>23.814353170560839</v>
@@ -775,7 +3607,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>44</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B46">
         <v>24.550344750947719</v>
@@ -783,7 +3615,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>45</v>
+        <v>4.5</v>
       </c>
       <c r="B47">
         <v>24.83267872689289</v>
@@ -791,7 +3623,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>46</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B48">
         <v>24.938184421084181</v>
@@ -799,7 +3631,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>47</v>
+        <v>4.7</v>
       </c>
       <c r="B49">
         <v>24.977223720140099</v>
@@ -807,7 +3639,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>48</v>
+        <v>4.8</v>
       </c>
       <c r="B50">
         <v>24.991616246738658</v>
@@ -815,7 +3647,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>49</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B51">
         <v>24.996915135601199</v>
@@ -823,7 +3655,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B52">
         <v>24.998865053284781</v>
@@ -831,7 +3663,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>51</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B53">
         <v>24.999582464460161</v>
@@ -839,7 +3671,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>52</v>
+        <v>5.2</v>
       </c>
       <c r="B54">
         <v>24.999846395652231</v>
@@ -847,7 +3679,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>53</v>
+        <v>5.3</v>
       </c>
       <c r="B55">
         <v>24.99994349193954</v>
@@ -855,7 +3687,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>54</v>
+        <v>5.4</v>
       </c>
       <c r="B56">
         <v>24.99997921192703</v>
@@ -863,7 +3695,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>55</v>
+        <v>5.5</v>
       </c>
       <c r="B57">
         <v>24.999992352791519</v>
@@ -871,7 +3703,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>56</v>
+        <v>5.6</v>
       </c>
       <c r="B58">
         <v>24.99999718756473</v>
@@ -879,7 +3711,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>57</v>
+        <v>5.7</v>
       </c>
       <c r="B59">
         <v>24.999998967581082</v>
@@ -887,7 +3719,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>58</v>
+        <v>5.8</v>
       </c>
       <c r="B60">
         <v>24.999999626224181</v>
@@ -895,7 +3727,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>59</v>
+        <v>5.9</v>
       </c>
       <c r="B61">
         <v>24.999999878886491</v>
@@ -903,7 +3735,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B62">
         <v>25</v>
@@ -911,7 +3743,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>61</v>
+        <v>6.1</v>
       </c>
       <c r="B63">
         <v>25.000000121113509</v>
@@ -919,7 +3751,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>62</v>
+        <v>6.2</v>
       </c>
       <c r="B64">
         <v>25.000000373775819</v>
@@ -927,7 +3759,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>63</v>
+        <v>6.3</v>
       </c>
       <c r="B65">
         <v>25.000001032418911</v>
@@ -935,7 +3767,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>64</v>
+        <v>6.4</v>
       </c>
       <c r="B66">
         <v>25.00000281243527</v>
@@ -943,7 +3775,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>65</v>
+        <v>6.5</v>
       </c>
       <c r="B67">
         <v>25.00000764720847</v>
@@ -951,7 +3783,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>66</v>
+        <v>6.6</v>
       </c>
       <c r="B68">
         <v>25.00002078807297</v>
@@ -959,7 +3791,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>67</v>
+        <v>6.7</v>
       </c>
       <c r="B69">
         <v>25.00005650806046</v>
@@ -967,7 +3799,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>68</v>
+        <v>6.8</v>
       </c>
       <c r="B70">
         <v>25.000153604347769</v>
@@ -975,7 +3807,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>69</v>
+        <v>6.9</v>
       </c>
       <c r="B71">
         <v>25.000417535539839</v>
@@ -983,7 +3815,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="B72">
         <v>25.001134946715219</v>
@@ -991,7 +3823,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>71</v>
+        <v>7.1</v>
       </c>
       <c r="B73">
         <v>25.003084864398801</v>
@@ -999,7 +3831,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>72</v>
+        <v>7.2</v>
       </c>
       <c r="B74">
         <v>25.008383753261349</v>
@@ -1007,7 +3839,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>73</v>
+        <v>7.3</v>
       </c>
       <c r="B75">
         <v>25.022776279859901</v>
@@ -1015,7 +3847,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>74</v>
+        <v>7.4</v>
       </c>
       <c r="B76">
         <v>25.06181557891583</v>
@@ -1023,7 +3855,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>75</v>
+        <v>7.5</v>
       </c>
       <c r="B77">
         <v>25.167321273107099</v>
@@ -1031,7 +3863,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>76</v>
+        <v>7.6</v>
       </c>
       <c r="B78">
         <v>25.449655249052281</v>
@@ -1039,7 +3871,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>77</v>
+        <v>7.7</v>
       </c>
       <c r="B79">
         <v>26.185646829439172</v>
@@ -1047,7 +3879,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>78</v>
+        <v>7.8</v>
       </c>
       <c r="B80">
         <v>27.980073050552939</v>
@@ -1055,7 +3887,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>79</v>
+        <v>7.9</v>
       </c>
       <c r="B81">
         <v>31.72353553424988</v>
@@ -1063,7 +3895,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="B82">
         <v>37.5</v>
@@ -1071,7 +3903,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>81</v>
+        <v>8.1</v>
       </c>
       <c r="B83">
         <v>43.276464465750117</v>
@@ -1079,7 +3911,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>82</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="B84">
         <v>47.019926949447047</v>
@@ -1087,7 +3919,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>83</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="B85">
         <v>48.814353170560842</v>
@@ -1095,7 +3927,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>84</v>
+        <v>8.4</v>
       </c>
       <c r="B86">
         <v>49.550344750947723</v>
@@ -1103,7 +3935,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>85</v>
+        <v>8.5</v>
       </c>
       <c r="B87">
         <v>49.832678726892887</v>
@@ -1111,7 +3943,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>86</v>
+        <v>8.6</v>
       </c>
       <c r="B88">
         <v>49.938184421084173</v>
@@ -1119,7 +3951,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>87</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="B89">
         <v>49.977223720140103</v>
@@ -1127,7 +3959,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>88</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="B90">
         <v>49.991616246738673</v>
@@ -1135,7 +3967,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>89</v>
+        <v>8.9</v>
       </c>
       <c r="B91">
         <v>49.996915135601213</v>
@@ -1143,7 +3975,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="B92">
         <v>49.998865053284781</v>
@@ -1151,7 +3983,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>91</v>
+        <v>9.1</v>
       </c>
       <c r="B93">
         <v>49.999582464460147</v>
@@ -1159,7 +3991,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>92</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="B94">
         <v>49.999846395652227</v>
@@ -1167,7 +3999,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>93</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="B95">
         <v>49.99994349193954</v>
@@ -1175,7 +4007,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>94</v>
+        <v>9.4</v>
       </c>
       <c r="B96">
         <v>49.999979211927027</v>
@@ -1183,7 +4015,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97">
-        <v>95</v>
+        <v>9.5</v>
       </c>
       <c r="B97">
         <v>49.999992352791523</v>
@@ -1191,7 +4023,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98">
-        <v>96</v>
+        <v>9.6</v>
       </c>
       <c r="B98">
         <v>49.99999718756473</v>
@@ -1199,7 +4031,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99">
-        <v>97</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="B99">
         <v>49.999998967581078</v>
@@ -1207,7 +4039,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100">
-        <v>98</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="B100">
         <v>49.999999626224188</v>
@@ -1215,7 +4047,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101">
-        <v>99</v>
+        <v>9.9</v>
       </c>
       <c r="B101">
         <v>49.999999878886477</v>
@@ -1223,7 +4055,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B102">
         <v>50</v>
@@ -1231,7 +4063,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103">
-        <v>101</v>
+        <v>10.1</v>
       </c>
       <c r="B103">
         <v>50.000000121113509</v>
@@ -1239,7 +4071,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104">
-        <v>102</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="B104">
         <v>50.000000373775819</v>
@@ -1247,7 +4079,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105">
-        <v>103</v>
+        <v>10.3</v>
       </c>
       <c r="B105">
         <v>50.000001032418908</v>
@@ -1255,7 +4087,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106">
-        <v>104</v>
+        <v>10.4</v>
       </c>
       <c r="B106">
         <v>50.000002812435262</v>
@@ -1263,7 +4095,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107">
-        <v>105</v>
+        <v>10.5</v>
       </c>
       <c r="B107">
         <v>50.00000764720847</v>
@@ -1271,7 +4103,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108">
-        <v>106</v>
+        <v>10.6</v>
       </c>
       <c r="B108">
         <v>50.000020788072973</v>
@@ -1279,7 +4111,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109">
-        <v>107</v>
+        <v>10.7</v>
       </c>
       <c r="B109">
         <v>50.000056508060453</v>
@@ -1287,7 +4119,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110">
-        <v>108</v>
+        <v>10.8</v>
       </c>
       <c r="B110">
         <v>50.000153604347773</v>
@@ -1295,7 +4127,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111">
-        <v>109</v>
+        <v>10.9</v>
       </c>
       <c r="B111">
         <v>50.000417535539839</v>
@@ -1303,7 +4135,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="B112">
         <v>50.001134946715233</v>
@@ -1311,7 +4143,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113">
-        <v>111</v>
+        <v>11.1</v>
       </c>
       <c r="B113">
         <v>50.003084864398787</v>
@@ -1319,7 +4151,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114">
-        <v>112</v>
+        <v>11.2</v>
       </c>
       <c r="B114">
         <v>50.008383753261349</v>
@@ -1327,7 +4159,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115">
-        <v>113</v>
+        <v>11.3</v>
       </c>
       <c r="B115">
         <v>50.022776279859897</v>
@@ -1335,7 +4167,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116">
-        <v>114</v>
+        <v>11.4</v>
       </c>
       <c r="B116">
         <v>50.061815578915827</v>
@@ -1343,7 +4175,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117">
-        <v>115</v>
+        <v>11.5</v>
       </c>
       <c r="B117">
         <v>50.167321273107113</v>
@@ -1351,7 +4183,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118">
-        <v>116</v>
+        <v>11.6</v>
       </c>
       <c r="B118">
         <v>50.449655249052277</v>
@@ -1359,7 +4191,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119">
-        <v>117</v>
+        <v>11.7</v>
       </c>
       <c r="B119">
         <v>51.185646829439172</v>
@@ -1367,7 +4199,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120">
-        <v>118</v>
+        <v>11.8</v>
       </c>
       <c r="B120">
         <v>52.980073050552939</v>
@@ -1375,7 +4207,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121">
-        <v>119</v>
+        <v>11.9</v>
       </c>
       <c r="B121">
         <v>56.723535534249883</v>
@@ -1383,7 +4215,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="B122">
         <v>62.5</v>
@@ -1391,7 +4223,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123">
-        <v>121</v>
+        <v>12.1</v>
       </c>
       <c r="B123">
         <v>68.276464465750124</v>
@@ -1399,7 +4231,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124">
-        <v>122</v>
+        <v>12.2</v>
       </c>
       <c r="B124">
         <v>72.019926949447054</v>
@@ -1407,7 +4239,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125">
-        <v>123</v>
+        <v>12.3</v>
       </c>
       <c r="B125">
         <v>73.814353170560835</v>
@@ -1415,7 +4247,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126">
-        <v>124</v>
+        <v>12.4</v>
       </c>
       <c r="B126">
         <v>74.550344750947716</v>
@@ -1423,7 +4255,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127">
-        <v>125</v>
+        <v>12.5</v>
       </c>
       <c r="B127">
         <v>74.832678726892894</v>
@@ -1431,7 +4263,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128">
-        <v>126</v>
+        <v>12.6</v>
       </c>
       <c r="B128">
         <v>74.938184421084173</v>
@@ -1439,7 +4271,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129">
-        <v>127</v>
+        <v>12.7</v>
       </c>
       <c r="B129">
         <v>74.977223720140103</v>
@@ -1447,7 +4279,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130">
-        <v>128</v>
+        <v>12.8</v>
       </c>
       <c r="B130">
         <v>74.991616246738658</v>
@@ -1455,7 +4287,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131">
-        <v>129</v>
+        <v>12.9</v>
       </c>
       <c r="B131">
         <v>74.996915135601213</v>
@@ -1463,7 +4295,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="B132">
         <v>74.998865053284788</v>
@@ -1471,7 +4303,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133">
-        <v>131</v>
+        <v>13.1</v>
       </c>
       <c r="B133">
         <v>74.999582464460147</v>
@@ -1479,7 +4311,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134">
-        <v>132</v>
+        <v>13.2</v>
       </c>
       <c r="B134">
         <v>74.999846395652227</v>
@@ -1487,7 +4319,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135">
-        <v>133</v>
+        <v>13.3</v>
       </c>
       <c r="B135">
         <v>74.999943491939547</v>
@@ -1495,7 +4327,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136">
-        <v>134</v>
+        <v>13.4</v>
       </c>
       <c r="B136">
         <v>74.999979211927041</v>
@@ -1503,7 +4335,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137">
-        <v>135</v>
+        <v>13.5</v>
       </c>
       <c r="B137">
         <v>74.999992352791523</v>
@@ -1511,7 +4343,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138">
-        <v>136</v>
+        <v>13.6</v>
       </c>
       <c r="B138">
         <v>74.99999718756473</v>
@@ -1519,7 +4351,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139">
-        <v>137</v>
+        <v>13.7</v>
       </c>
       <c r="B139">
         <v>74.999998967581078</v>
@@ -1527,7 +4359,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140">
-        <v>138</v>
+        <v>13.8</v>
       </c>
       <c r="B140">
         <v>74.999999626224181</v>
@@ -1535,7 +4367,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141">
-        <v>139</v>
+        <v>13.9</v>
       </c>
       <c r="B141">
         <v>74.999999878886484</v>
@@ -1543,7 +4375,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="B142">
         <v>75</v>
@@ -1551,7 +4383,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143">
-        <v>141</v>
+        <v>14.1</v>
       </c>
       <c r="B143">
         <v>75.000000121113516</v>
@@ -1559,7 +4391,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144">
-        <v>142</v>
+        <v>14.2</v>
       </c>
       <c r="B144">
         <v>75.000000373775819</v>
@@ -1567,7 +4399,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145">
-        <v>143</v>
+        <v>14.3</v>
       </c>
       <c r="B145">
         <v>75.000001032418922</v>
@@ -1575,7 +4407,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146">
-        <v>144</v>
+        <v>14.4</v>
       </c>
       <c r="B146">
         <v>75.00000281243527</v>
@@ -1583,7 +4415,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147">
-        <v>145</v>
+        <v>14.5</v>
       </c>
       <c r="B147">
         <v>75.000007647208477</v>
@@ -1591,7 +4423,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A148">
-        <v>146</v>
+        <v>14.6</v>
       </c>
       <c r="B148">
         <v>75.000020788072959</v>
@@ -1599,7 +4431,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149">
-        <v>147</v>
+        <v>14.7</v>
       </c>
       <c r="B149">
         <v>75.000056508060453</v>
@@ -1607,7 +4439,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150">
-        <v>148</v>
+        <v>14.8</v>
       </c>
       <c r="B150">
         <v>75.000153604347773</v>
@@ -1615,7 +4447,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151">
-        <v>149</v>
+        <v>14.9</v>
       </c>
       <c r="B151">
         <v>75.000417535539839</v>
@@ -1623,7 +4455,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A152">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="B152">
         <v>75.001134946715226</v>
@@ -1631,7 +4463,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153">
-        <v>151</v>
+        <v>15.1</v>
       </c>
       <c r="B153">
         <v>75.003084864398801</v>
@@ -1639,7 +4471,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154">
-        <v>152</v>
+        <v>15.2</v>
       </c>
       <c r="B154">
         <v>75.008383753261356</v>
@@ -1647,7 +4479,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155">
-        <v>153</v>
+        <v>15.3</v>
       </c>
       <c r="B155">
         <v>75.022776279859897</v>
@@ -1655,7 +4487,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A156">
-        <v>154</v>
+        <v>15.4</v>
       </c>
       <c r="B156">
         <v>75.061815578915827</v>
@@ -1663,7 +4495,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A157">
-        <v>155</v>
+        <v>15.5</v>
       </c>
       <c r="B157">
         <v>75.167321273107106</v>
@@ -1671,7 +4503,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158">
-        <v>156</v>
+        <v>15.6</v>
       </c>
       <c r="B158">
         <v>75.449655249052284</v>
@@ -1679,7 +4511,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159">
-        <v>157</v>
+        <v>15.7</v>
       </c>
       <c r="B159">
         <v>76.185646829439165</v>
@@ -1687,7 +4519,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160">
-        <v>158</v>
+        <v>15.8</v>
       </c>
       <c r="B160">
         <v>77.980073050552932</v>
@@ -1695,7 +4527,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A161">
-        <v>159</v>
+        <v>15.9</v>
       </c>
       <c r="B161">
         <v>81.723535534249876</v>
@@ -1703,7 +4535,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A162">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="B162">
         <v>87.5</v>
@@ -1711,7 +4543,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A163">
-        <v>161</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="B163">
         <v>93.276464465750124</v>
@@ -1719,7 +4551,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A164">
-        <v>162</v>
+        <v>16.2</v>
       </c>
       <c r="B164">
         <v>97.019926949447054</v>
@@ -1727,7 +4559,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A165">
-        <v>163</v>
+        <v>16.3</v>
       </c>
       <c r="B165">
         <v>98.814353170560835</v>
@@ -1735,7 +4567,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A166">
-        <v>164</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="B166">
         <v>99.550344750947716</v>
@@ -1743,7 +4575,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A167">
-        <v>165</v>
+        <v>16.5</v>
       </c>
       <c r="B167">
         <v>99.83267872689288</v>
@@ -1751,7 +4583,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A168">
-        <v>166</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="B168">
         <v>99.938184421084131</v>
@@ -1759,7 +4591,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169">
-        <v>167</v>
+        <v>16.7</v>
       </c>
       <c r="B169">
         <v>99.977223720139989</v>
@@ -1767,7 +4599,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A170">
-        <v>168</v>
+        <v>16.8</v>
       </c>
       <c r="B170">
         <v>99.991616246738346</v>
@@ -1775,7 +4607,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A171">
-        <v>169</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="B171">
         <v>99.996915135600347</v>
@@ -1783,7 +4615,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A172">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="B172">
         <v>99.998865053282444</v>
@@ -1791,7 +4623,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A173">
-        <v>171</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="B173">
         <v>99.999582464453795</v>
@@ -1799,7 +4631,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A174">
-        <v>172</v>
+        <v>17.2</v>
       </c>
       <c r="B174">
         <v>99.999846395634947</v>
@@ -1807,7 +4639,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A175">
-        <v>173</v>
+        <v>17.3</v>
       </c>
       <c r="B175">
         <v>99.999943491892552</v>
@@ -1815,7 +4647,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A176">
-        <v>174</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="B176">
         <v>99.999979211799314</v>
@@ -1823,7 +4655,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A177">
-        <v>175</v>
+        <v>17.5</v>
       </c>
       <c r="B177">
         <v>99.999992352444323</v>
@@ -1831,7 +4663,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A178">
-        <v>176</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="B178">
         <v>99.999997186620945</v>
@@ -1839,7 +4671,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A179">
-        <v>177</v>
+        <v>17.7</v>
       </c>
       <c r="B179">
         <v>99.999998965015607</v>
@@ -1847,7 +4679,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A180">
-        <v>178</v>
+        <v>17.8</v>
       </c>
       <c r="B180">
         <v>99.999999619250517</v>
@@ -1855,7 +4687,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A181">
-        <v>179</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="B181">
         <v>99.999999859930085</v>
@@ -1863,7 +4695,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A182">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="B182">
         <v>99.999999948471157</v>
@@ -1871,7 +4703,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A183">
-        <v>181</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="B183">
         <v>99.999999981043601</v>
@@ -1879,7 +4711,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A184">
-        <v>182</v>
+        <v>18.2</v>
       </c>
       <c r="B184">
         <v>99.999999993026336</v>
@@ -1887,7 +4719,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A185">
-        <v>183</v>
+        <v>18.3</v>
       </c>
       <c r="B185">
         <v>99.999999997434529</v>
@@ -1895,7 +4727,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A186">
-        <v>184</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="B186">
         <v>99.999999999056215</v>
@@ -1903,7 +4735,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187">
-        <v>185</v>
+        <v>18.5</v>
       </c>
       <c r="B187">
         <v>99.9999999996528</v>
@@ -1911,7 +4743,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A188">
-        <v>186</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="B188">
         <v>99.999999999872273</v>
@@ -1919,7 +4751,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A189">
-        <v>187</v>
+        <v>18.7</v>
       </c>
       <c r="B189">
         <v>99.999999999953005</v>
@@ -1927,7 +4759,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A190">
-        <v>188</v>
+        <v>18.8</v>
       </c>
       <c r="B190">
         <v>99.99999999998272</v>
@@ -1935,7 +4767,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A191">
-        <v>189</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="B191">
         <v>99.999999999993634</v>
@@ -1943,7 +4775,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A192">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="B192">
         <v>99.999999999997669</v>
@@ -1951,7 +4783,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A193">
-        <v>191</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="B193">
         <v>99.999999999999147</v>
@@ -1959,7 +4791,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A194">
-        <v>192</v>
+        <v>19.2</v>
       </c>
       <c r="B194">
         <v>99.999999999999687</v>
@@ -1967,7 +4799,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195">
-        <v>193</v>
+        <v>19.3</v>
       </c>
       <c r="B195">
         <v>99.999999999999886</v>
@@ -1975,7 +4807,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196">
-        <v>194</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="B196">
         <v>99.999999999999957</v>
@@ -1983,7 +4815,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A197">
-        <v>195</v>
+        <v>19.5</v>
       </c>
       <c r="B197">
         <v>99.999999999999986</v>
@@ -1991,7 +4823,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A198">
-        <v>196</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="B198">
         <v>100</v>
@@ -1999,7 +4831,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A199">
-        <v>197</v>
+        <v>19.7</v>
       </c>
       <c r="B199">
         <v>100</v>
@@ -2007,7 +4839,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A200">
-        <v>198</v>
+        <v>19.8</v>
       </c>
       <c r="B200">
         <v>100</v>
@@ -2015,7 +4847,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A201">
-        <v>199</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="B201">
         <v>100</v>
@@ -2023,7 +4855,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A202">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="B202">
         <v>100</v>
@@ -2031,7 +4863,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A203">
-        <v>201</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="B203">
         <v>99.999999859930085</v>
@@ -2039,7 +4871,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A204">
-        <v>202</v>
+        <v>20.2</v>
       </c>
       <c r="B204">
         <v>99.999999619250517</v>
@@ -2047,7 +4879,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A205">
-        <v>203</v>
+        <v>20.3</v>
       </c>
       <c r="B205">
         <v>99.999998965015607</v>
@@ -2055,7 +4887,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A206">
-        <v>204</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="B206">
         <v>99.999997186620945</v>
@@ -2063,7 +4895,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A207">
-        <v>205</v>
+        <v>20.5</v>
       </c>
       <c r="B207">
         <v>99.999992352444309</v>
@@ -2071,7 +4903,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A208">
-        <v>206</v>
+        <v>20.6</v>
       </c>
       <c r="B208">
         <v>99.999979211799257</v>
@@ -2079,7 +4911,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A209">
-        <v>207</v>
+        <v>20.7</v>
       </c>
       <c r="B209">
         <v>99.999943491892438</v>
@@ -2087,7 +4919,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A210">
-        <v>208</v>
+        <v>20.8</v>
       </c>
       <c r="B210">
         <v>99.99984639563462</v>
@@ -2095,7 +4927,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A211">
-        <v>209</v>
+        <v>20.9</v>
       </c>
       <c r="B211">
         <v>99.999582464452942</v>
@@ -2103,7 +4935,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A212">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="B212">
         <v>99.998865053280099</v>
@@ -2111,7 +4943,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A213">
-        <v>211</v>
+        <v>21.1</v>
       </c>
       <c r="B213">
         <v>99.99691513559398</v>
@@ -2119,7 +4951,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A214">
-        <v>212</v>
+        <v>21.2</v>
       </c>
       <c r="B214">
         <v>99.991616246721051</v>
@@ -2127,7 +4959,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A215">
-        <v>213</v>
+        <v>21.3</v>
       </c>
       <c r="B215">
         <v>99.977223720092994</v>
@@ -2135,7 +4967,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A216">
-        <v>214</v>
+        <v>21.4</v>
       </c>
       <c r="B216">
         <v>99.938184420956404</v>
@@ -2143,7 +4975,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A217">
-        <v>215</v>
+        <v>21.5</v>
       </c>
       <c r="B217">
         <v>99.83267872654568</v>
@@ -2151,7 +4983,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A218">
-        <v>216</v>
+        <v>21.6</v>
       </c>
       <c r="B218">
         <v>99.550344750003916</v>
@@ -2159,7 +4991,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A219">
-        <v>217</v>
+        <v>21.7</v>
       </c>
       <c r="B219">
         <v>98.814353167995364</v>
@@ -2167,7 +4999,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A220">
-        <v>218</v>
+        <v>21.8</v>
       </c>
       <c r="B220">
         <v>97.01992694247339</v>
@@ -2175,7 +5007,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A221">
-        <v>219</v>
+        <v>21.9</v>
       </c>
       <c r="B221">
         <v>93.27646444679371</v>
@@ -2183,7 +5015,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A222">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="B222">
         <v>87.499999948471157</v>
@@ -2191,7 +5023,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A223">
-        <v>221</v>
+        <v>22.1</v>
       </c>
       <c r="B223">
         <v>81.723535394179976</v>
@@ -2199,7 +5031,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A224">
-        <v>222</v>
+        <v>22.2</v>
       </c>
       <c r="B224">
         <v>77.980072669803448</v>
@@ -2207,7 +5039,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A225">
-        <v>223</v>
+        <v>22.3</v>
       </c>
       <c r="B225">
         <v>76.185645794454786</v>
@@ -2215,7 +5047,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A226">
-        <v>224</v>
+        <v>22.4</v>
       </c>
       <c r="B226">
         <v>75.449652435673229</v>
@@ -2223,7 +5055,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A227">
-        <v>225</v>
+        <v>22.5</v>
       </c>
       <c r="B227">
         <v>75.167313625551429</v>
@@ -2231,7 +5063,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A228">
-        <v>226</v>
+        <v>22.6</v>
       </c>
       <c r="B228">
         <v>75.06179479071514</v>
@@ -2239,7 +5071,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A229">
-        <v>227</v>
+        <v>22.7</v>
       </c>
       <c r="B229">
         <v>75.022719771752449</v>
@@ -2247,7 +5079,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A230">
-        <v>228</v>
+        <v>22.8</v>
       </c>
       <c r="B230">
         <v>75.008230148896288</v>
@@ -2255,7 +5087,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A231">
-        <v>229</v>
+        <v>22.9</v>
       </c>
       <c r="B231">
         <v>75.002667328852596</v>
@@ -2263,7 +5095,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A232">
-        <v>230</v>
+        <v>23</v>
       </c>
       <c r="B232">
         <v>74.999999999997669</v>
@@ -2271,7 +5103,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A233">
-        <v>231</v>
+        <v>23.1</v>
       </c>
       <c r="B233">
         <v>74.997332671140185</v>
@@ -2279,7 +5111,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A234">
-        <v>232</v>
+        <v>23.2</v>
       </c>
       <c r="B234">
         <v>74.991769851086104</v>
@@ -2287,7 +5119,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A235">
-        <v>233</v>
+        <v>23.3</v>
       </c>
       <c r="B235">
         <v>74.977280228200442</v>
@@ -2295,7 +5127,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A236">
-        <v>234</v>
+        <v>23.4</v>
       </c>
       <c r="B236">
         <v>74.938205209157104</v>
@@ -2303,7 +5135,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A237">
-        <v>235</v>
+        <v>23.5</v>
       </c>
       <c r="B237">
         <v>74.832686374101357</v>
@@ -2311,7 +5143,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A238">
-        <v>236</v>
+        <v>23.6</v>
       </c>
       <c r="B238">
         <v>74.550347563382971</v>
@@ -2319,7 +5151,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A239">
-        <v>237</v>
+        <v>23.7</v>
       </c>
       <c r="B239">
         <v>73.814354202979743</v>
@@ -2327,7 +5159,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A240">
-        <v>238</v>
+        <v>23.8</v>
       </c>
       <c r="B240">
         <v>72.019927323222873</v>
@@ -2335,7 +5167,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A241">
-        <v>239</v>
+        <v>23.9</v>
       </c>
       <c r="B241">
         <v>68.276464586863625</v>
@@ -2343,7 +5175,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A242">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="B242">
         <v>62.5</v>
@@ -2351,7 +5183,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A243">
-        <v>241</v>
+        <v>24.1</v>
       </c>
       <c r="B243">
         <v>56.723535413136368</v>
@@ -2359,7 +5191,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A244">
-        <v>242</v>
+        <v>24.2</v>
       </c>
       <c r="B244">
         <v>52.980072676777127</v>
@@ -2367,7 +5199,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A245">
-        <v>243</v>
+        <v>24.3</v>
       </c>
       <c r="B245">
         <v>51.18564579702025</v>
@@ -2375,7 +5207,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A246">
-        <v>244</v>
+        <v>24.4</v>
       </c>
       <c r="B246">
         <v>50.449652436617008</v>
@@ -2383,7 +5215,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A247">
-        <v>245</v>
+        <v>24.5</v>
       </c>
       <c r="B247">
         <v>50.167313625898629</v>
@@ -2391,7 +5223,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A248">
-        <v>246</v>
+        <v>24.6</v>
       </c>
       <c r="B248">
         <v>50.06179479084286</v>
@@ -2399,7 +5231,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A249">
-        <v>247</v>
+        <v>24.7</v>
       </c>
       <c r="B249">
         <v>50.022719771799437</v>
@@ -2407,7 +5239,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A250">
-        <v>248</v>
+        <v>24.8</v>
       </c>
       <c r="B250">
         <v>50.008230148913583</v>
@@ -2415,7 +5247,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A251">
-        <v>249</v>
+        <v>24.9</v>
       </c>
       <c r="B251">
         <v>50.002667328858948</v>
@@ -2423,7 +5255,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A252">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="B252">
         <v>50</v>
@@ -2431,7 +5263,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A253">
-        <v>251</v>
+        <v>25.1</v>
       </c>
       <c r="B253">
         <v>49.997332671141038</v>
@@ -2439,7 +5271,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A254">
-        <v>252</v>
+        <v>25.2</v>
       </c>
       <c r="B254">
         <v>49.991769851086431</v>
@@ -2447,7 +5279,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A255">
-        <v>253</v>
+        <v>25.3</v>
       </c>
       <c r="B255">
         <v>49.977280228200563</v>
@@ -2455,7 +5287,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A256">
-        <v>254</v>
+        <v>25.4</v>
       </c>
       <c r="B256">
         <v>49.938205209157147</v>
@@ -2463,7 +5295,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A257">
-        <v>255</v>
+        <v>25.5</v>
       </c>
       <c r="B257">
         <v>49.832686374101371</v>
@@ -2471,7 +5303,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A258">
-        <v>256</v>
+        <v>25.6</v>
       </c>
       <c r="B258">
         <v>49.550347563382992</v>
@@ -2479,7 +5311,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A259">
-        <v>257</v>
+        <v>25.7</v>
       </c>
       <c r="B259">
         <v>48.81435420297975</v>
@@ -2487,7 +5319,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A260">
-        <v>258</v>
+        <v>25.8</v>
       </c>
       <c r="B260">
         <v>47.019927323222873</v>
@@ -2495,7 +5327,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A261">
-        <v>259</v>
+        <v>25.9</v>
       </c>
       <c r="B261">
         <v>43.276464586863632</v>
@@ -2503,7 +5335,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A262">
-        <v>260</v>
+        <v>26</v>
       </c>
       <c r="B262">
         <v>37.5</v>
@@ -2511,7 +5343,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A263">
-        <v>261</v>
+        <v>26.1</v>
       </c>
       <c r="B263">
         <v>31.723535413136371</v>
@@ -2519,7 +5351,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A264">
-        <v>262</v>
+        <v>26.2</v>
       </c>
       <c r="B264">
         <v>27.98007267677712</v>
@@ -2527,7 +5359,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A265">
-        <v>263</v>
+        <v>26.3</v>
       </c>
       <c r="B265">
         <v>26.18564579702025</v>
@@ -2535,7 +5367,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A266">
-        <v>264</v>
+        <v>26.4</v>
       </c>
       <c r="B266">
         <v>25.449652436617018</v>
@@ -2543,7 +5375,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A267">
-        <v>265</v>
+        <v>26.5</v>
       </c>
       <c r="B267">
         <v>25.16731362589864</v>
@@ -2551,7 +5383,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A268">
-        <v>266</v>
+        <v>26.6</v>
       </c>
       <c r="B268">
         <v>25.0617947908429</v>
@@ -2559,7 +5391,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A269">
-        <v>267</v>
+        <v>26.7</v>
       </c>
       <c r="B269">
         <v>25.022719771799551</v>
@@ -2567,7 +5399,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A270">
-        <v>268</v>
+        <v>26.8</v>
       </c>
       <c r="B270">
         <v>25.008230148913889</v>
@@ -2575,7 +5407,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A271">
-        <v>269</v>
+        <v>26.9</v>
       </c>
       <c r="B271">
         <v>25.002667328859811</v>
@@ -2583,7 +5415,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A272">
-        <v>270</v>
+        <v>27</v>
       </c>
       <c r="B272">
         <v>25.000000000002341</v>
@@ -2591,7 +5423,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A273">
-        <v>271</v>
+        <v>27.1</v>
       </c>
       <c r="B273">
         <v>24.997332671147401</v>
@@ -2599,7 +5431,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A274">
-        <v>272</v>
+        <v>27.2</v>
       </c>
       <c r="B274">
         <v>24.991769851103719</v>
@@ -2607,7 +5439,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A275">
-        <v>273</v>
+        <v>27.3</v>
       </c>
       <c r="B275">
         <v>24.977280228247551</v>
@@ -2615,7 +5447,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A276">
-        <v>274</v>
+        <v>27.4</v>
       </c>
       <c r="B276">
         <v>24.93820520928487</v>
@@ -2623,7 +5455,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A277">
-        <v>275</v>
+        <v>27.5</v>
       </c>
       <c r="B277">
         <v>24.832686374448571</v>
@@ -2631,7 +5463,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A278">
-        <v>276</v>
+        <v>27.6</v>
       </c>
       <c r="B278">
         <v>24.550347564326771</v>
@@ -2639,7 +5471,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A279">
-        <v>277</v>
+        <v>27.7</v>
       </c>
       <c r="B279">
         <v>23.814354205545222</v>
@@ -2647,7 +5479,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A280">
-        <v>278</v>
+        <v>27.8</v>
       </c>
       <c r="B280">
         <v>22.019927330196541</v>
@@ -2655,7 +5487,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A281">
-        <v>279</v>
+        <v>27.9</v>
       </c>
       <c r="B281">
         <v>18.276464605820031</v>
@@ -2663,7 +5495,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A282">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="B282">
         <v>12.50000005152884</v>
@@ -2671,7 +5503,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A283">
-        <v>281</v>
+        <v>28.1</v>
       </c>
       <c r="B283">
         <v>6.723535553206279</v>
@@ -2679,7 +5511,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A284">
-        <v>282</v>
+        <v>28.2</v>
       </c>
       <c r="B284">
         <v>2.9800730575266088</v>
@@ -2687,7 +5519,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A285">
-        <v>283</v>
+        <v>28.3</v>
       </c>
       <c r="B285">
         <v>1.1856468320046389</v>
@@ -2695,7 +5527,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A286">
-        <v>284</v>
+        <v>28.4</v>
       </c>
       <c r="B286">
         <v>0.44965524999607259</v>
@@ -2703,7 +5535,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A287">
-        <v>285</v>
+        <v>28.5</v>
       </c>
       <c r="B287">
         <v>0.16732127345431999</v>
@@ -2711,7 +5543,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A288">
-        <v>286</v>
+        <v>28.6</v>
       </c>
       <c r="B288">
         <v>6.1815579043596587E-2</v>
@@ -2719,7 +5551,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A289">
-        <v>287</v>
+        <v>28.7</v>
       </c>
       <c r="B289">
         <v>2.277627990700435E-2</v>
@@ -2727,7 +5559,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A290">
-        <v>288</v>
+        <v>28.8</v>
       </c>
       <c r="B290">
         <v>8.383753278947954E-3</v>
@@ -2735,7 +5567,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A291">
-        <v>289</v>
+        <v>28.9</v>
       </c>
       <c r="B291">
         <v>3.084864406014957E-3</v>
@@ -2743,7 +5575,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A292">
-        <v>290</v>
+        <v>29</v>
       </c>
       <c r="B292">
         <v>1.1349467199002661E-3</v>
@@ -2751,7 +5583,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A293">
-        <v>291</v>
+        <v>29.1</v>
       </c>
       <c r="B293">
         <v>4.1753554706299882E-4</v>
@@ -2759,7 +5591,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A294">
-        <v>292</v>
+        <v>29.2</v>
       </c>
       <c r="B294">
         <v>1.536043653719721E-4</v>
@@ -2767,7 +5599,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A295">
-        <v>293</v>
+        <v>29.3</v>
       </c>
       <c r="B295">
         <v>5.6508107564061507E-5</v>
@@ -2775,7 +5607,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A296">
-        <v>294</v>
+        <v>29.4</v>
       </c>
       <c r="B296">
         <v>2.0788200734451019E-5</v>
@@ -2783,7 +5615,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A297">
-        <v>295</v>
+        <v>29.5</v>
       </c>
       <c r="B297">
         <v>7.6475556889034102E-6</v>
@@ -2791,7 +5623,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A298">
-        <v>296</v>
+        <v>29.6</v>
       </c>
       <c r="B298">
         <v>2.8133790571761822E-6</v>
@@ -2799,7 +5631,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A299">
-        <v>297</v>
+        <v>29.7</v>
       </c>
       <c r="B299">
         <v>1.034984388981845E-6</v>
@@ -2807,7 +5639,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A300">
-        <v>298</v>
+        <v>29.8</v>
       </c>
       <c r="B300">
         <v>3.8074948860379189E-7</v>
@@ -2815,7 +5647,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A301">
-        <v>299</v>
+        <v>29.9</v>
       </c>
       <c r="B301">
         <v>1.4006991044235409E-7</v>
@@ -2823,7 +5655,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A302">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="B302">
         <v>5.1528840560963947E-8</v>
@@ -2831,5 +5663,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>